--- a/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>1/9,10,11/2023</t>
+  </si>
+  <si>
+    <t>3/5,6/2023</t>
   </si>
 </sst>
 </file>
@@ -708,9 +711,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -720,17 +720,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,6 +944,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -948,12 +957,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1182,6 +1185,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1189,12 +1198,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -1259,25 +1262,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A8:K91" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A8:K91" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table134[[EARNED ]])-SUM(Table134[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1289,25 +1292,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K70" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K70" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1623,7 +1626,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,60 +1648,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1724,18 +1727,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1782,7 +1785,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])</f>
-        <v>46.25</v>
+        <v>48.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1792,7 +1795,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table134[[EARNED ]])-SUM(Table134[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3202,15 +3205,19 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="41">
+        <v>44958</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
@@ -3218,15 +3225,19 @@
       <c r="K78" s="48"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
+      <c r="A79" s="41">
+        <v>44986</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
@@ -3427,17 +3438,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
@@ -3473,9 +3484,9 @@
   <dimension ref="A2:K70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,60 +3508,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3576,18 +3587,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3644,7 +3655,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>70.974999999999994</v>
+        <v>68.974999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4732,8 +4743,12 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="41">
+        <v>44986</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="40"/>
       <c r="E58" s="9"/>
@@ -4742,10 +4757,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H58" s="40"/>
+      <c r="H58" s="40">
+        <v>2</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="20" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
@@ -4941,17 +4960,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>3/5,6/2023</t>
+  </si>
+  <si>
+    <t>BDAY 4/11/2023</t>
+  </si>
+  <si>
+    <t>TICC</t>
   </si>
 </sst>
 </file>
@@ -714,17 +720,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -734,6 +737,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1623,9 +1629,9 @@
   </sheetPr>
   <dimension ref="A2:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A61"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
@@ -1656,14 +1662,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1674,14 +1680,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1694,14 +1700,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1727,18 +1735,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3438,17 +3446,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
@@ -3483,10 +3491,10 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,14 +3524,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3534,14 +3542,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3554,14 +3562,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3587,18 +3595,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3655,7 +3663,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.974999999999994</v>
+        <v>67.974999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4768,7 +4776,9 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C59" s="13"/>
       <c r="D59" s="40"/>
       <c r="E59" s="9"/>
@@ -4780,11 +4790,15 @@
       <c r="H59" s="40"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="40"/>
       <c r="E60" s="9"/>
@@ -4793,10 +4807,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H60" s="40"/>
+      <c r="H60" s="40">
+        <v>1</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="48">
+        <v>45015</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
@@ -4960,17 +4978,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="5" r:id="rId1"/>
@@ -720,14 +720,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -737,9 +740,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1629,8 +1629,8 @@
   </sheetPr>
   <dimension ref="A2:K91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5775" topLeftCell="A61"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
@@ -1662,14 +1662,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1680,14 +1680,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1700,16 +1700,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1735,18 +1735,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3446,19 +3446,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -3467,7 +3467,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3475,8 +3475,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                         OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3491,7 +3491,7 @@
   </sheetPr>
   <dimension ref="A2:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A46" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
@@ -3524,14 +3524,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3542,14 +3542,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3562,14 +3562,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3595,18 +3595,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4978,17 +4978,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
+++ b/DONE/DISEPEDA, MACARIA PALOMERO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>PERIOD</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>TICC</t>
+  </si>
+  <si>
+    <t>5/15-17/2023</t>
   </si>
 </sst>
 </file>
@@ -720,17 +723,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -740,6 +740,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1629,10 +1632,10 @@
   </sheetPr>
   <dimension ref="A2:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5775" topLeftCell="A61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,14 +1665,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1680,14 +1683,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1700,16 +1703,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1735,18 +1738,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1793,7 +1796,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table134[EARNED])-SUM(Table134[Absence Undertime W/ Pay])</f>
-        <v>48.75</v>
+        <v>47</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1803,7 +1806,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table134[[EARNED ]])-SUM(Table134[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3253,23 +3256,35 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="41"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="40"/>
+      <c r="A80" s="41">
+        <v>45017</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D80" s="40">
+        <v>3</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table134[[#This Row],[EARNED]]),"",Table134[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="20" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="41"/>
+      <c r="A81" s="41">
+        <v>45047</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="40"/>
@@ -3446,17 +3461,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
@@ -3524,14 +3539,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3542,14 +3557,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3562,14 +3577,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3595,18 +3610,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4978,17 +4993,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
